--- a/Excel/12. Dependendent Dyanamic & Autoformatter for worksheets/Movie List for Create Excel Dropdown Menus.xlsx
+++ b/Excel/12. Dependendent Dyanamic & Autoformatter for worksheets/Movie List for Create Excel Dropdown Menus.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DC_DDS_02\Excel\12. Dependendent Dyanamic &amp; Autoformatter for worksheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B488125-BD2A-4C3E-9B7F-7C2CFE538C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856CFEEF-A662-4560-8BB9-8014978165DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Movie List" sheetId="5" r:id="rId1"/>
+    <sheet name="list" sheetId="6" state="hidden" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Categories">Table1[List of Categories]</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="71">
   <si>
     <t>Title</t>
   </si>
@@ -229,6 +233,21 @@
   </si>
   <si>
     <t>List of Categories</t>
+  </si>
+  <si>
+    <t>Wanted</t>
+  </si>
+  <si>
+    <t>Romantic Comedy</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>Horror Comedy</t>
+  </si>
+  <si>
+    <t>The book of Eli</t>
   </si>
 </sst>
 </file>
@@ -282,7 +301,63 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -361,6 +436,16 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB573AAB-895F-482D-BF0F-3196F554FCDF}" name="Table1" displayName="Table1" ref="A1:A20" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A1:A20" xr:uid="{CB573AAB-895F-482D-BF0F-3196F554FCDF}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{CE8F3631-9B2F-4F24-8BA7-2622EAB678CB}" name="List of Categories" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -650,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD1A21F-E471-4F64-991D-48ED45D6FB8A}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -680,9 +765,6 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -701,6 +783,7 @@
       <c r="D2">
         <v>1978</v>
       </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -715,9 +798,6 @@
       <c r="D3">
         <v>1989</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -732,9 +812,6 @@
       <c r="D4">
         <v>1995</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -749,9 +826,6 @@
       <c r="D5">
         <v>2003</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -766,9 +840,6 @@
       <c r="D6">
         <v>2002</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -783,25 +854,19 @@
       <c r="D7">
         <v>2003</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
       </c>
       <c r="D8">
         <v>2003</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -817,9 +882,6 @@
       <c r="D9">
         <v>1939</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -834,9 +896,6 @@
       <c r="D10">
         <v>1989</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -851,9 +910,6 @@
       <c r="D11">
         <v>1990</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -868,9 +924,6 @@
       <c r="D12">
         <v>1986</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -885,9 +938,6 @@
       <c r="D13">
         <v>1987</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -902,9 +952,6 @@
       <c r="D14">
         <v>1994</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -919,9 +966,6 @@
       <c r="D15">
         <v>1996</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -936,9 +980,6 @@
       <c r="D16">
         <v>2000</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -953,9 +994,6 @@
       <c r="D17">
         <v>1968</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -970,6 +1008,7 @@
       <c r="D18">
         <v>1999</v>
       </c>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1321,9 +1360,160 @@
         <v>2020</v>
       </c>
     </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B501" xr:uid="{02400AA0-6191-432F-938C-4ED00703C510}">
+      <formula1>Categories</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77CF1EF-7630-4A31-8D8B-138D447328B6}">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
